--- a/output/freezer_03_shelf1/c4_exceldata.xlsx
+++ b/output/freezer_03_shelf1/c4_exceldata.xlsx
@@ -28,7 +28,7 @@
     <t>F3-S1-R1-D1-FB1</t>
   </si>
   <si>
-    <t>DRW520</t>
+    <t>DRW569</t>
   </si>
   <si>
     <t>F3-S1-R1-D1-FB2</t>
@@ -43,7 +43,7 @@
     <t>F3-S1-R1-D2-FB1</t>
   </si>
   <si>
-    <t>DRW521</t>
+    <t>DRW570</t>
   </si>
   <si>
     <t>F3-S1-R1-D2-FB2</t>
@@ -58,7 +58,7 @@
     <t>F3-S1-R1-D3-FB1</t>
   </si>
   <si>
-    <t>DRW522</t>
+    <t>DRW571</t>
   </si>
   <si>
     <t>F3-S1-R1-D3-FB2</t>
@@ -73,7 +73,7 @@
     <t>F3-S1-R1-D4-FB1</t>
   </si>
   <si>
-    <t>DRW523</t>
+    <t>DRW572</t>
   </si>
   <si>
     <t>F3-S1-R1-D4-FB2</t>
@@ -88,7 +88,7 @@
     <t>F3-S1-R1-D5-FB1</t>
   </si>
   <si>
-    <t>DRW524</t>
+    <t>DRW573</t>
   </si>
   <si>
     <t>F3-S1-R1-D5-FB2</t>
@@ -103,7 +103,7 @@
     <t>F3-S1-R1-D6-FB1</t>
   </si>
   <si>
-    <t>DRW525</t>
+    <t>DRW574</t>
   </si>
   <si>
     <t>F3-S1-R1-D6-FB2</t>
@@ -118,7 +118,7 @@
     <t>F3-S1-R1-D7-FB1</t>
   </si>
   <si>
-    <t>DRW526</t>
+    <t>DRW575</t>
   </si>
   <si>
     <t>F3-S1-R1-D7-FB2</t>
@@ -133,7 +133,7 @@
     <t>F3-S1-R2-D1-FB1</t>
   </si>
   <si>
-    <t>DRW527</t>
+    <t>DRW576</t>
   </si>
   <si>
     <t>F3-S1-R2-D1-FB2</t>
@@ -148,7 +148,7 @@
     <t>F3-S1-R2-D2-FB1</t>
   </si>
   <si>
-    <t>DRW528</t>
+    <t>DRW577</t>
   </si>
   <si>
     <t>F3-S1-R2-D2-FB2</t>
@@ -163,7 +163,7 @@
     <t>F3-S1-R2-D3-FB1</t>
   </si>
   <si>
-    <t>DRW529</t>
+    <t>DRW578</t>
   </si>
   <si>
     <t>F3-S1-R2-D3-FB2</t>
@@ -178,7 +178,7 @@
     <t>F3-S1-R2-D4-FB1</t>
   </si>
   <si>
-    <t>DRW530</t>
+    <t>DRW579</t>
   </si>
   <si>
     <t>F3-S1-R2-D4-FB2</t>
@@ -193,7 +193,7 @@
     <t>F3-S1-R2-D5-FB1</t>
   </si>
   <si>
-    <t>DRW531</t>
+    <t>DRW580</t>
   </si>
   <si>
     <t>F3-S1-R2-D5-FB2</t>
@@ -208,7 +208,7 @@
     <t>F3-S1-R2-D6-FB1</t>
   </si>
   <si>
-    <t>DRW532</t>
+    <t>DRW581</t>
   </si>
   <si>
     <t>F3-S1-R2-D6-FB2</t>
@@ -223,7 +223,7 @@
     <t>F3-S1-R2-D7-FB1</t>
   </si>
   <si>
-    <t>DRW533</t>
+    <t>DRW582</t>
   </si>
   <si>
     <t>F3-S1-R2-D7-FB2</t>
@@ -238,7 +238,7 @@
     <t>F3-S1-R3-D1-FB1</t>
   </si>
   <si>
-    <t>DRW534</t>
+    <t>DRW583</t>
   </si>
   <si>
     <t>F3-S1-R3-D1-FB2</t>
@@ -253,7 +253,7 @@
     <t>F3-S1-R3-D2-FB1</t>
   </si>
   <si>
-    <t>DRW535</t>
+    <t>DRW584</t>
   </si>
   <si>
     <t>F3-S1-R3-D2-FB2</t>
@@ -268,7 +268,7 @@
     <t>F3-S1-R3-D3-FB1</t>
   </si>
   <si>
-    <t>DRW536</t>
+    <t>DRW585</t>
   </si>
   <si>
     <t>F3-S1-R3-D3-FB2</t>
@@ -283,7 +283,7 @@
     <t>F3-S1-R3-D4-FB1</t>
   </si>
   <si>
-    <t>DRW537</t>
+    <t>DRW586</t>
   </si>
   <si>
     <t>F3-S1-R3-D4-FB2</t>
@@ -298,7 +298,7 @@
     <t>F3-S1-R3-D5-FB1</t>
   </si>
   <si>
-    <t>DRW538</t>
+    <t>DRW587</t>
   </si>
   <si>
     <t>F3-S1-R3-D5-FB2</t>
@@ -313,7 +313,7 @@
     <t>F3-S1-R3-D6-FB1</t>
   </si>
   <si>
-    <t>DRW539</t>
+    <t>DRW588</t>
   </si>
   <si>
     <t>F3-S1-R3-D6-FB2</t>
@@ -328,7 +328,7 @@
     <t>F3-S1-R3-D7-FB1</t>
   </si>
   <si>
-    <t>DRW540</t>
+    <t>DRW589</t>
   </si>
   <si>
     <t>F3-S1-R3-D7-FB2</t>
@@ -343,7 +343,7 @@
     <t>F3-S1-R4-D1-FB1</t>
   </si>
   <si>
-    <t>DRW541</t>
+    <t>DRW590</t>
   </si>
   <si>
     <t>F3-S1-R4-D1-FB2</t>
@@ -358,7 +358,7 @@
     <t>F3-S1-R4-D2-FB1</t>
   </si>
   <si>
-    <t>DRW542</t>
+    <t>DRW591</t>
   </si>
   <si>
     <t>F3-S1-R4-D2-FB2</t>
@@ -373,7 +373,7 @@
     <t>F3-S1-R4-D3-FB1</t>
   </si>
   <si>
-    <t>DRW543</t>
+    <t>DRW592</t>
   </si>
   <si>
     <t>F3-S1-R4-D3-FB2</t>
@@ -388,7 +388,7 @@
     <t>F3-S1-R4-D4-FB1</t>
   </si>
   <si>
-    <t>DRW544</t>
+    <t>DRW593</t>
   </si>
   <si>
     <t>F3-S1-R4-D4-FB2</t>
@@ -403,7 +403,7 @@
     <t>F3-S1-R4-D5-FB1</t>
   </si>
   <si>
-    <t>DRW545</t>
+    <t>DRW594</t>
   </si>
   <si>
     <t>F3-S1-R4-D5-FB2</t>
@@ -418,7 +418,7 @@
     <t>F3-S1-R4-D6-FB1</t>
   </si>
   <si>
-    <t>DRW546</t>
+    <t>DRW595</t>
   </si>
   <si>
     <t>F3-S1-R4-D6-FB2</t>
@@ -433,7 +433,7 @@
     <t>F3-S1-R4-D7-FB1</t>
   </si>
   <si>
-    <t>DRW547</t>
+    <t>DRW596</t>
   </si>
   <si>
     <t>F3-S1-R4-D7-FB2</t>
@@ -448,7 +448,7 @@
     <t>F3-S1-R5-D1-FB1</t>
   </si>
   <si>
-    <t>DRW548</t>
+    <t>DRW597</t>
   </si>
   <si>
     <t>F3-S1-R5-D1-FB2</t>
@@ -463,7 +463,7 @@
     <t>F3-S1-R5-D2-FB1</t>
   </si>
   <si>
-    <t>DRW549</t>
+    <t>DRW598</t>
   </si>
   <si>
     <t>F3-S1-R5-D2-FB2</t>
@@ -478,7 +478,7 @@
     <t>F3-S1-R5-D3-FB1</t>
   </si>
   <si>
-    <t>DRW550</t>
+    <t>DRW599</t>
   </si>
   <si>
     <t>F3-S1-R5-D3-FB2</t>
@@ -493,7 +493,7 @@
     <t>F3-S1-R5-D4-FB1</t>
   </si>
   <si>
-    <t>DRW551</t>
+    <t>DRW600</t>
   </si>
   <si>
     <t>F3-S1-R5-D4-FB2</t>
@@ -508,7 +508,7 @@
     <t>F3-S1-R5-D5-FB1</t>
   </si>
   <si>
-    <t>DRW552</t>
+    <t>DRW601</t>
   </si>
   <si>
     <t>F3-S1-R5-D5-FB2</t>
@@ -523,7 +523,7 @@
     <t>F3-S1-R5-D6-FB1</t>
   </si>
   <si>
-    <t>DRW553</t>
+    <t>DRW602</t>
   </si>
   <si>
     <t>F3-S1-R5-D6-FB2</t>
@@ -538,7 +538,7 @@
     <t>F3-S1-R5-D7-FB1</t>
   </si>
   <si>
-    <t>DRW554</t>
+    <t>DRW603</t>
   </si>
   <si>
     <t>F3-S1-R5-D7-FB2</t>
@@ -553,7 +553,7 @@
     <t>F3-S1-R6-D1-FB1</t>
   </si>
   <si>
-    <t>DRW555</t>
+    <t>DRW604</t>
   </si>
   <si>
     <t>F3-S1-R6-D1-FB2</t>
@@ -568,7 +568,7 @@
     <t>F3-S1-R6-D2-FB1</t>
   </si>
   <si>
-    <t>DRW556</t>
+    <t>DRW605</t>
   </si>
   <si>
     <t>F3-S1-R6-D2-FB2</t>
@@ -583,7 +583,7 @@
     <t>F3-S1-R6-D3-FB1</t>
   </si>
   <si>
-    <t>DRW557</t>
+    <t>DRW606</t>
   </si>
   <si>
     <t>F3-S1-R6-D3-FB2</t>
@@ -598,7 +598,7 @@
     <t>F3-S1-R6-D4-FB1</t>
   </si>
   <si>
-    <t>DRW558</t>
+    <t>DRW607</t>
   </si>
   <si>
     <t>F3-S1-R6-D4-FB2</t>
@@ -613,7 +613,7 @@
     <t>F3-S1-R6-D5-FB1</t>
   </si>
   <si>
-    <t>DRW559</t>
+    <t>DRW608</t>
   </si>
   <si>
     <t>F3-S1-R6-D5-FB2</t>
@@ -628,7 +628,7 @@
     <t>F3-S1-R6-D6-FB1</t>
   </si>
   <si>
-    <t>DRW560</t>
+    <t>DRW609</t>
   </si>
   <si>
     <t>F3-S1-R6-D6-FB2</t>
@@ -643,7 +643,7 @@
     <t>F3-S1-R6-D7-FB1</t>
   </si>
   <si>
-    <t>DRW561</t>
+    <t>DRW610</t>
   </si>
   <si>
     <t>F3-S1-R6-D7-FB2</t>
